--- a/patients.xlsx
+++ b/patients.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAT-D54C2E</t>
+          <t>PAT-E4E57A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Random Patient</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
